--- a/docs/Man Test Records.xlsx
+++ b/docs/Man Test Records.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shelbyd/CODING/Projects/Assignments/yt_co/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFDA53E9-3AEC-2048-A786-6B66E9E43528}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064D5892-12A0-5945-9513-245D0338F4A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34100" yWindow="-4060" windowWidth="28800" windowHeight="17540" xr2:uid="{E4B1E5C7-DAD6-3D4D-9E2A-0CE9718F5B2E}"/>
+    <workbookView xWindow="-37980" yWindow="-4340" windowWidth="28600" windowHeight="17560" xr2:uid="{E4B1E5C7-DAD6-3D4D-9E2A-0CE9718F5B2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Feature being tested</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>New Items</t>
+  </si>
+  <si>
+    <t>new_item = Item.new</t>
+  </si>
+  <si>
+    <t>new_item.title = "dress"</t>
+  </si>
+  <si>
+    <t>27th July 2020</t>
   </si>
 </sst>
 </file>
@@ -94,12 +106,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -114,10 +132,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,58 +455,88 @@
   <dimension ref="A2:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="9" width="22.83203125" style="2" customWidth="1"/>
+    <col min="2" max="9" width="22.83203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
